--- a/biology/Botanique/Chordariaceae/Chordariaceae.xlsx
+++ b/biology/Botanique/Chordariaceae/Chordariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Chordariaceae est une famille d’algues brunes de l’ordre des Ectocarpales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Chordaria, composé du préfixe latin "chorda-", corde, et du suffixe latin "-aria", « relatif à ; originaire de », en référence à la forme de l'algue qui fait penser à une corde.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (5 février 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (5 février 2019) :
 Acrocytis Rosenvinge
 Acrospongium Schiffner
 Acrothrix Kylin
@@ -696,7 +712,7 @@
 Xanthosiphonia J.Agardh
 Zonarina Ørsted
 Zonarius Ørsted
-Selon Catalogue of Life                                   (5 février 2019)[2] :
+Selon Catalogue of Life                                   (5 février 2019) :
 Acrocytis
 Acrospongium
 Acrothrix
@@ -806,7 +822,7 @@
 Zonarina
 Zonarius
 Zosterocarpus
-Selon World Register of Marine Species                               (5 février 2019)[3] :
+Selon World Register of Marine Species                               (5 février 2019) :
 Acrocytis Rosenvinge, 1933
 Acrospongium Schiffner, 1916
 Acrothrix Kylin, 1907
